--- a/DOWNLOADS/EDITAIS/U_462264_E_900062025_30-09-2025_10h00m/U_462264_E_900062025_30-09-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_462264_E_900062025_30-09-2025_10h00m/U_462264_E_900062025_30-09-2025_10h00m_master.xlsx
@@ -79,10 +79,10 @@
     <t>TECLADO AMPLIADO (BAIXA VISÃO) E ADAPTADO P/ BRAILLE (CEGOS) - € COMFIO: WINDOWS - PC 2 e TECLADO STANDART ADAPTADO PARA O BRAILLE E BAIXA VI- 221228-5 | und 2 R$ 199,63 SÃO. e PADRÃO ABNT2 e USB</t>
   </si>
   <si>
-    <t>FONE DE OUVIDO PARA ACESSIBILIDADE - 3 € FONES DE OUVIDO ANTI-RUÍDO PARA AUTISMO, TDAH, RAP 221228-5 und 2 R$ 76,40 COLOR BLUE RAP</t>
-  </si>
-  <si>
-    <t>NOBREAK UPS SENOIDAL UNIVER-SAL, 1800VA, BI- VOLTS 8 TOMADAS. e PROTEÇÃO ELETRÔNICA CONTRA SOBRECARGA NA SAÍDA COM SINALIZAÇÃO; € PROTEÇÃO CONTRA CURTO-CIRCUITO NO INVERSOR; e PROTEÇÃO CONTRA SUB E SOBRE TENSÃO AC COM RETORNO 4 AUTOMÁTICO; 219870-3 | und 4 R$ 3.344,25 e PROTEÇÃO CONTRA DESCARGA TOTAL DAS BATERIAS; € PROTEÇÃO CONTRA SOBREAQUECIMENTO NO INVERSOR E NO TRANSFORMADOR; e PROTEÇÃO CONTRA RUÍDOS E SURTOS NA REDE ELÉTRICA; € PROTEÇÃO CONTRA CURTO-CIRCUITO NAS TOMADAS DE SA- ÍDA.</t>
+    <t>FONES DE OUVIDO ANTI-RUÍDO PARA AUTISMO, TDAH, RAP 221228-5 und 2 R$ 76,40 COLOR BLUE RAP</t>
+  </si>
+  <si>
+    <t>NOBREAK UPS SENOIDAL UNIVER-SAL, 1800VA, BI- VOLTS 8 TOMADAS. e PROTEÇÃO ELETRÔNICA CONTRA SOBRECARGA NA SAÍDA COM SINALIZAÇÃO; € PROTEÇÃO CONTRA CURTO-CIRCUITO NO INVERSOR; e PROTEÇÃO CONTRA SUB E SOBRE TENSÃO AC COM RETORNO AUTOMÁTICO; 219870-3 | und 4 R$ 3.344,25 e PROTEÇÃO CONTRA DESCARGA TOTAL DAS BATERIAS; € PROTEÇÃO CONTRA SOBREAQUECIMENTO NO INVERSOR E NO TRANSFORMADOR; e PROTEÇÃO CONTRA RUÍDOS E SURTOS NA REDE ELÉTRICA; € PROTEÇÃO CONTRA CURTO-CIRCUITO NAS TOMADAS DE SAÍDA.</t>
   </si>
   <si>
     <t>KIT WORKSTATION € PROCESSADOR 13º GERAÇÃO 17-13700 (16-CORES, 24 THRE- ADS, CACHE DE 30 MB, 2.10 GHZ A 5.20 GHZ TURBO, 65 W) € SISTEMA OPERACIONAL WINDOWS 11 PRO, PORTUGUÊS (BRA- SIL) € PLACA DE VÍDEO T1000 4GB DEDICADA, GDDR6 - 5 e MEMÓRIA 32 GB, 2 X 16 GB, DDR5, 4400 MT/S, V2 221228-5 | umd 1 R$ 8.101,43 € ARMAZENAMENTO SSD M.2 1TB PCIE NVME'" CLASSE 40 € TECLADO TECLADO MULTIMÍDIA DELL KB216, PRETO, EM POR- TUGUÊS (BRASIL), ABNT2 € MOUSE MOUSE ÓPTICO DELL - MS116 (PRETO) € PLACA DE REDE GIGABIT 10/100/1000 MBPS € PORTAS USB E PORTA HDMI</t>

--- a/DOWNLOADS/EDITAIS/U_462264_E_900062025_30-09-2025_10h00m/U_462264_E_900062025_30-09-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_462264_E_900062025_30-09-2025_10h00m/U_462264_E_900062025_30-09-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Nº</t>
   </si>
@@ -73,46 +73,19 @@
     <t>Microcomputador Microcomputador Memória Ram: 32GB, Núcleos Por Processador: Superior A 8, Armazenamento Hdd: Sem Disco HddTB., Armazenamento Ssd: Até 2 Tb, Monitor: Sem MonitorPOL, Componentes Adicionais: Com Teclado E Mouse, Sistema Operacional: Proprietário, Garantia On Site: 12MESES, Gabinete: Torre, Outros Recursos: Conforme Edital</t>
   </si>
   <si>
-    <t>COMPUTADOR DESKTOP PROCESSADOR 13º? GERAÇÃO MEMÓRIA RAM DE 8GB SSD 256GB 221228-5 | und 40 R$ 3.146,13 SISTEMA OPERACIONAL: WINDOWS 10 MONITOR LED 23,8. FULL HD, 60HZ, COM SAÍDA HDMI E VGA. KIT TECLADO E MOUSE COM FIO USB, COR PRETO.</t>
-  </si>
-  <si>
-    <t>TECLADO AMPLIADO (BAIXA VISÃO) E ADAPTADO P/ BRAILLE (CEGOS) - € COMFIO: WINDOWS - PC 2 e TECLADO STANDART ADAPTADO PARA O BRAILLE E BAIXA VI- 221228-5 | und 2 R$ 199,63 SÃO. e PADRÃO ABNT2 e USB</t>
-  </si>
-  <si>
-    <t>FONES DE OUVIDO ANTI-RUÍDO PARA AUTISMO, TDAH, RAP 221228-5 und 2 R$ 76,40 COLOR BLUE RAP</t>
-  </si>
-  <si>
-    <t>NOBREAK UPS SENOIDAL UNIVER-SAL, 1800VA, BI- VOLTS 8 TOMADAS. e PROTEÇÃO ELETRÔNICA CONTRA SOBRECARGA NA SAÍDA COM SINALIZAÇÃO; € PROTEÇÃO CONTRA CURTO-CIRCUITO NO INVERSOR; e PROTEÇÃO CONTRA SUB E SOBRE TENSÃO AC COM RETORNO AUTOMÁTICO; 219870-3 | und 4 R$ 3.344,25 e PROTEÇÃO CONTRA DESCARGA TOTAL DAS BATERIAS; € PROTEÇÃO CONTRA SOBREAQUECIMENTO NO INVERSOR E NO TRANSFORMADOR; e PROTEÇÃO CONTRA RUÍDOS E SURTOS NA REDE ELÉTRICA; € PROTEÇÃO CONTRA CURTO-CIRCUITO NAS TOMADAS DE SAÍDA.</t>
-  </si>
-  <si>
-    <t>KIT WORKSTATION € PROCESSADOR 13º GERAÇÃO 17-13700 (16-CORES, 24 THRE- ADS, CACHE DE 30 MB, 2.10 GHZ A 5.20 GHZ TURBO, 65 W) € SISTEMA OPERACIONAL WINDOWS 11 PRO, PORTUGUÊS (BRA- SIL) € PLACA DE VÍDEO T1000 4GB DEDICADA, GDDR6 - 5 e MEMÓRIA 32 GB, 2 X 16 GB, DDR5, 4400 MT/S, V2 221228-5 | umd 1 R$ 8.101,43 € ARMAZENAMENTO SSD M.2 1TB PCIE NVME'" CLASSE 40 € TECLADO TECLADO MULTIMÍDIA DELL KB216, PRETO, EM POR- TUGUÊS (BRASIL), ABNT2 € MOUSE MOUSE ÓPTICO DELL - MS116 (PRETO) € PLACA DE REDE GIGABIT 10/100/1000 MBPS € PORTAS USB E PORTA HDMI</t>
-  </si>
-  <si>
-    <t>3146,13</t>
-  </si>
-  <si>
-    <t>199,63</t>
-  </si>
-  <si>
-    <t>76,40</t>
-  </si>
-  <si>
-    <t>3334,25</t>
-  </si>
-  <si>
-    <t>8101,43</t>
-  </si>
-  <si>
-    <t>125845,20</t>
-  </si>
-  <si>
-    <t>399,26</t>
-  </si>
-  <si>
-    <t>152,80</t>
-  </si>
-  <si>
-    <t>13337,00</t>
+    <t>COMPUTADOR DESKTOP ● PROCESSADOR 13ª GERAÇÃO ● MEMÓRIA RAM DE 8GB - 1 ● SSD 256GB ● SISTEMA OPERACIONAL: WINDOWS 10 ● MONITOR LED 23,8. FULL HD, 60HZ, COM SAÍDA HDMI E VGA. ● KIT TECLADO E MOUSE COM FIO USB, COR PRETO.</t>
+  </si>
+  <si>
+    <t>TECLADO AMPLIADO (BAIXA VISÃO) E ADAPTADO P/ BRAILLE (CEGOS) ● COM FIO· WINDOWS · PC ● TECLADO STANDART ADAPTADO PARA O BRAILLE E BAIXA VISÃO. ● PADRÃO ABNT2 ● USB</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO PARA ACESSIBILIDADE ● FONES DE OUVIDO ANTI-RUÍDO PARA AUTISMO, TDAH, RAP COLOR BLUE RAP</t>
+  </si>
+  <si>
+    <t>NOBREAK UPS SENOIDAL UNIVER-SAL, 1800VA, BI- VOLTS 8 TOMADAS. ● PROTEÇÃO ELETRÔNICA CONTRA SOBRECARGA NA SAÍDA COM SINALIZAÇÃO; ● PROTEÇÃO CONTRA CURTO-CIRCUITO NO INVERSOR; ● PROTEÇÃO CONTRA SUB E SOBRE TENSÃO AC COM RETORNO AUTOMÁTICO; ● PROTEÇÃO CONTRA DESCARGA TOTAL DAS BATERIAS; ● PROTEÇÃO CONTRA SOBREAQUECIMENTO NO INVERSOR E NO TRANSFORMADOR; ● PROTEÇÃO CONTRA RUÍDOS E SURTOS NA REDE ELÉTRICA; ● PROTEÇÃO CONTRA CURTO-CIRCUITO NAS TOMADAS DE SAÍDA.</t>
+  </si>
+  <si>
+    <t>KIT WORKSTATION ● PROCESSADOR 13ª GERAÇÃO I7-13700 (16-CORES, 24 THRE- ADS, CACHE DE 30 MB, 2.10 GHZ A 5.20 GHZ TURBO, 65 W) ● SISTEMA OPERACIONAL WINDOWS 11 PRO, PORTUGUÊS (BRASIL) ● PLACA DE VÍDEO T1000 4GB DEDICADA, GDDR6 ● MEMÓRIA 32 GB, 2 X 16 GB, DDR5, 4400 MT/S, V2 ● ARMAZENAMENTO SSD M.2 1TB PCIE NVME™ CLASSE 40 ● TECLADO TECLADO MULTIMÍDIA DELL KB216, PRETO, EM PORTUGUÊS (BRASIL), ABNT2 ● MOUSE MOUSE ÓPTICO DELL - MS116 (PRETO) ● PLACA DE REDE GIGABIT 10/100/1000 MBPS ● PORTAS USB E PORTA HDMI</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -527,20 +500,17 @@
       <c r="D2">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>125845.2</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -556,20 +526,17 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>399.26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -585,20 +552,17 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>152.8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -614,20 +578,17 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
+      <c r="F5">
+        <v>13337</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -643,20 +604,20 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+      <c r="E6">
+        <v>8101.43</v>
+      </c>
+      <c r="F6">
+        <v>8101.43</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
